--- a/hardware/Wind Vane/BOM/Wind Vane BOM.xlsx
+++ b/hardware/Wind Vane/BOM/Wind Vane BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Desktop\Uni\5th year\Semester 2\Project\GitHub Folder\WeirWeather-AWS\hardware\Wind Vane\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C7705F-D993-4481-944E-EE833E043A83}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55574D4-F9B7-4DF4-9D95-A5DFCF8AF2EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11955" yWindow="5370" windowWidth="19065" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="19065" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BillOfMaterials" sheetId="2" r:id="rId1"/>
@@ -1121,253 +1121,6 @@
         <name val="Trebuchet MS"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="169" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Trebuchet MS"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="169" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Trebuchet MS"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Trebuchet MS"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Trebuchet MS"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Trebuchet MS"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Trebuchet MS"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Trebuchet MS"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Trebuchet MS"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Trebuchet MS"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Trebuchet MS"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="solid">
@@ -1935,6 +1688,253 @@
         <name val="Arial"/>
         <scheme val="major"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Trebuchet MS"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Trebuchet MS"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Trebuchet MS"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Trebuchet MS"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Trebuchet MS"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Trebuchet MS"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Trebuchet MS"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Trebuchet MS"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Trebuchet MS"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Trebuchet MS"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -3385,16 +3385,16 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A10:J19" totalsRowCount="1" headerRowDxfId="53" dataDxfId="52" tableBorderDxfId="51">
   <tableColumns count="10">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Part #" dataDxfId="19" totalsRowDxfId="9"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Part Name" totalsRowLabel="Total" dataDxfId="18" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Revision" dataDxfId="17" totalsRowDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Qty" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{2D4F9170-CB99-4A72-8C08-FC52E7B5DCAA}" name="Supplier" dataDxfId="15" totalsRowDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{5DE446D4-92C5-445C-A942-4619AA71B7AF}" name="Part No." dataDxfId="14" totalsRowDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Units" dataDxfId="13" totalsRowDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Supplier2" dataDxfId="12" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Unit Cost" dataDxfId="11" totalsRowDxfId="1" dataCellStyle="Currency"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Cost" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="0">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Part #" dataDxfId="50" totalsRowDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Part Name" totalsRowLabel="Total" dataDxfId="49" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Revision" dataDxfId="48" totalsRowDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Qty" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{2D4F9170-CB99-4A72-8C08-FC52E7B5DCAA}" name="Supplier" dataDxfId="46" totalsRowDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{5DE446D4-92C5-445C-A942-4619AA71B7AF}" name="Part No." dataDxfId="45" totalsRowDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Units" dataDxfId="44" totalsRowDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Supplier2" dataDxfId="43" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Unit Cost" dataDxfId="42" totalsRowDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Cost" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="0">
       <calculatedColumnFormula>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Cost]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3403,29 +3403,29 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A6:C26" totalsRowShown="0" headerRowDxfId="50" dataDxfId="48" headerRowBorderDxfId="49" tableBorderDxfId="47" totalsRowBorderDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A6:C26" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Revision" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Revision Summary" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Approval Date" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Revision" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Revision Summary" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Approval Date" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A10:J31" totalsRowCount="1" headerRowDxfId="42" dataDxfId="41" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A10:J31" totalsRowCount="1" headerRowDxfId="32" dataDxfId="31" tableBorderDxfId="30">
   <tableColumns count="10">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Category" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Part #" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Elem ID" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Part Name" totalsRowLabel="Total" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Color" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Qty" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Units" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Picture" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Unit Cost" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Currency"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Cost" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Category" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Part #" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Elem ID" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Part Name" totalsRowLabel="Total" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Color" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Qty" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Units" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Picture" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Unit Cost" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Cost" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>Table14[[#This Row],[Qty]]*Table14[[#This Row],[Unit Cost]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3665,8 +3665,8 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -4021,11 +4021,11 @@
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="57">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J16" s="59">
         <f>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Cost]]</f>
-        <v>2.4000000000000004</v>
+        <v>3.2</v>
       </c>
       <c r="L16" s="2"/>
     </row>
@@ -4106,7 +4106,7 @@
       <c r="I19" s="18"/>
       <c r="J19" s="58">
         <f>SUBTOTAL(109,Table1[Cost])</f>
-        <v>23.689999999999998</v>
+        <v>24.490000000000002</v>
       </c>
       <c r="L19" s="2"/>
     </row>
